--- a/biology/Histoire de la zoologie et de la botanique/Michael_Rank/Michael_Rank.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Michael_Rank/Michael_Rank.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michael Rank, né à Londres en 1950[1], mort le 20 mai 2017[2], est un journaliste anglais, traducteur et spécialiste de la Chine et du Tibet.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael Rank, né à Londres en 1950, mort le 20 mai 2017, est un journaliste anglais, traducteur et spécialiste de la Chine et du Tibet.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est né en 1950 à Londres, fils de Hugh Rank, réfugié juif de Vienne ayant fui le nazisme, et de son épouse Joan[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est né en 1950 à Londres, fils de Hugh Rank, réfugié juif de Vienne ayant fui le nazisme, et de son épouse Joan. 
 Il est diplômé en chinois de Downing College de l'université de Cambridge en 1972. Il étudia ensuite la linguistique à l'université Cornell à Ithaca dans l’État de New York aux États-Unis. Il a également suivi des études à l'université de Pékin et l'université de Fudan à Shanghai de 1974 à 1976. Il est journaliste en Chine au début des années 1980 et visite en 1983 le Tibet, alors fermé aux étrangers.
-Basé à Londres, il a été correspondant de Reuters à Pékin. Il a visité la ville de Rasŏn en Corée du Nord en 2010[4]. Ses articles sont publiés dans The Guardian, Asia Times Online, BBC Wildlife[5] et North Korea Economy Watch[6].
-Traducteur du chinois en anglais et journaliste indépendant, son intérêt pour l'ornithologie l'a conduit à réaliser une étude biographique sur Frank Ludlow[7] et sur l'histoire de école anglaise de Gyantsé[8], une école laïque au Tibet qu'il dirigea de 1923 à 1926. L'un de ses articles à ce sujet a été publié par l'Institut Namgyal de tibétologie.
-Il a publié trois articles à la Royal Society for Asian Affairs (en)[9].
+Basé à Londres, il a été correspondant de Reuters à Pékin. Il a visité la ville de Rasŏn en Corée du Nord en 2010. Ses articles sont publiés dans The Guardian, Asia Times Online, BBC Wildlife et North Korea Economy Watch.
+Traducteur du chinois en anglais et journaliste indépendant, son intérêt pour l'ornithologie l'a conduit à réaliser une étude biographique sur Frank Ludlow et sur l'histoire de école anglaise de Gyantsé, une école laïque au Tibet qu'il dirigea de 1923 à 1926. L'un de ses articles à ce sujet a été publié par l'Institut Namgyal de tibétologie.
+Il a publié trois articles à la Royal Society for Asian Affairs (en).
 </t>
         </is>
       </c>
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
